--- a/data/pca/factorExposure/factorExposure_2018-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0778327483308104</v>
+        <v>0.05186054260354429</v>
       </c>
       <c r="C2">
-        <v>0.05032799997772463</v>
+        <v>-0.0264716030574409</v>
       </c>
       <c r="D2">
-        <v>-0.0727078242436681</v>
+        <v>-0.02220001613352832</v>
       </c>
       <c r="E2">
-        <v>-0.0008301503075113325</v>
+        <v>-0.02823650906866346</v>
       </c>
       <c r="F2">
-        <v>0.1091527307331898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01779361042492846</v>
+      </c>
+      <c r="G2">
+        <v>0.107177837612598</v>
+      </c>
+      <c r="H2">
+        <v>0.07321593024221959</v>
+      </c>
+      <c r="I2">
+        <v>0.06352675349072263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1800930968289108</v>
+        <v>0.1290960175043149</v>
       </c>
       <c r="C3">
-        <v>-0.02747574114745395</v>
+        <v>-0.06789613304559831</v>
       </c>
       <c r="D3">
-        <v>-0.1456283891298655</v>
+        <v>-0.01474934456603398</v>
       </c>
       <c r="E3">
-        <v>-0.04518432995159435</v>
+        <v>0.02401118365670789</v>
       </c>
       <c r="F3">
-        <v>0.3702235869534211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01015025659273421</v>
+      </c>
+      <c r="G3">
+        <v>0.3589312314169704</v>
+      </c>
+      <c r="H3">
+        <v>0.2803438065960155</v>
+      </c>
+      <c r="I3">
+        <v>0.04950508764017653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07290045178787889</v>
+        <v>0.05858366774564163</v>
       </c>
       <c r="C4">
-        <v>0.02253012566835087</v>
+        <v>-0.04168369332551396</v>
       </c>
       <c r="D4">
-        <v>-0.05956267691728708</v>
+        <v>0.006058397561651578</v>
       </c>
       <c r="E4">
-        <v>-0.04406274801247358</v>
+        <v>-0.02468268295593439</v>
       </c>
       <c r="F4">
-        <v>0.05863372720421886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0510539300094206</v>
+      </c>
+      <c r="G4">
+        <v>0.06587234867861395</v>
+      </c>
+      <c r="H4">
+        <v>0.02372037998745397</v>
+      </c>
+      <c r="I4">
+        <v>0.042479068883121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.004021893396314869</v>
+        <v>0.02732710295326841</v>
       </c>
       <c r="C6">
-        <v>0.0001947643749640383</v>
+        <v>-0.01873973058243704</v>
       </c>
       <c r="D6">
-        <v>1.399425647591055e-05</v>
+        <v>-0.0002405597106924436</v>
       </c>
       <c r="E6">
-        <v>0.005113752467466046</v>
+        <v>-0.00247634464052466</v>
       </c>
       <c r="F6">
-        <v>0.002123703983639668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02769548819905677</v>
+      </c>
+      <c r="G6">
+        <v>0.01583035852886075</v>
+      </c>
+      <c r="H6">
+        <v>-0.03256206759241932</v>
+      </c>
+      <c r="I6">
+        <v>-0.009124895703486935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03530330859528708</v>
+        <v>0.0304960645302755</v>
       </c>
       <c r="C7">
-        <v>0.01769370657473456</v>
+        <v>-0.01807628648162302</v>
       </c>
       <c r="D7">
-        <v>-0.04495807228086981</v>
+        <v>0.03201981643612515</v>
       </c>
       <c r="E7">
-        <v>-0.004547234826931734</v>
+        <v>-0.01499535165651155</v>
       </c>
       <c r="F7">
-        <v>0.08050599795487086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0229960401964797</v>
+      </c>
+      <c r="G7">
+        <v>0.04907012759234648</v>
+      </c>
+      <c r="H7">
+        <v>0.04713114369823976</v>
+      </c>
+      <c r="I7">
+        <v>-0.00176306690999979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0387419796252202</v>
+        <v>0.01390315284642905</v>
       </c>
       <c r="C8">
-        <v>-0.005181395614299731</v>
+        <v>-0.04423311386357431</v>
       </c>
       <c r="D8">
-        <v>-0.04872421954333401</v>
+        <v>0.004726942058184973</v>
       </c>
       <c r="E8">
-        <v>-0.04179492483662364</v>
+        <v>-0.008752656952962954</v>
       </c>
       <c r="F8">
-        <v>0.0760114486996397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0197983803371493</v>
+      </c>
+      <c r="G8">
+        <v>0.06545338447475055</v>
+      </c>
+      <c r="H8">
+        <v>0.05407037385491641</v>
+      </c>
+      <c r="I8">
+        <v>0.03138616703737628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05737225551540892</v>
+        <v>0.0486990374143438</v>
       </c>
       <c r="C9">
-        <v>0.02515436496952224</v>
+        <v>-0.03476775133520138</v>
       </c>
       <c r="D9">
-        <v>-0.04576249928119628</v>
+        <v>0.01004362216601753</v>
       </c>
       <c r="E9">
-        <v>-0.05624543066090519</v>
+        <v>-0.02277381489443684</v>
       </c>
       <c r="F9">
-        <v>0.05153496725370887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.03497274479990295</v>
+      </c>
+      <c r="G9">
+        <v>0.0724099106593093</v>
+      </c>
+      <c r="H9">
+        <v>0.02612435127109712</v>
+      </c>
+      <c r="I9">
+        <v>0.0434296694976208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.04140852623691171</v>
+        <v>0.06640145480664762</v>
       </c>
       <c r="C10">
-        <v>0.08667266843396426</v>
+        <v>0.1558680568230933</v>
       </c>
       <c r="D10">
-        <v>0.1113297565551499</v>
+        <v>0.009174954131278059</v>
       </c>
       <c r="E10">
-        <v>0.08154546339432768</v>
+        <v>0.004484165690052221</v>
       </c>
       <c r="F10">
-        <v>0.04232360829482484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05877957420391523</v>
+      </c>
+      <c r="G10">
+        <v>0.04805230499771702</v>
+      </c>
+      <c r="H10">
+        <v>0.03204894801691322</v>
+      </c>
+      <c r="I10">
+        <v>0.03694343624462484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04928886667481634</v>
+        <v>0.04067249601418955</v>
       </c>
       <c r="C11">
-        <v>0.0006503374525927114</v>
+        <v>-0.03767461115440843</v>
       </c>
       <c r="D11">
-        <v>-0.03086008772000089</v>
+        <v>-0.01126448767030388</v>
       </c>
       <c r="E11">
-        <v>-0.005229564783313741</v>
+        <v>-0.008245641195814443</v>
       </c>
       <c r="F11">
-        <v>0.04950375758373488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.00861322916961998</v>
+      </c>
+      <c r="G11">
+        <v>0.03730135780832161</v>
+      </c>
+      <c r="H11">
+        <v>0.0001966909800533132</v>
+      </c>
+      <c r="I11">
+        <v>0.01548855503702857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04280445134984752</v>
+        <v>0.03928201731700148</v>
       </c>
       <c r="C12">
-        <v>0.002167314942538127</v>
+        <v>-0.03590859072350971</v>
       </c>
       <c r="D12">
-        <v>-0.02958532991770077</v>
+        <v>-1.897814614996089e-06</v>
       </c>
       <c r="E12">
-        <v>-0.02438280306642471</v>
+        <v>-0.008721506428683454</v>
       </c>
       <c r="F12">
-        <v>0.03720781652183877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01897134595035569</v>
+      </c>
+      <c r="G12">
+        <v>0.01492288687348457</v>
+      </c>
+      <c r="H12">
+        <v>0.003126483530022881</v>
+      </c>
+      <c r="I12">
+        <v>0.006474054090845422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04593398546731996</v>
+        <v>0.03705322983639948</v>
       </c>
       <c r="C13">
-        <v>0.01424224681406591</v>
+        <v>-0.01840933230556978</v>
       </c>
       <c r="D13">
-        <v>-0.0510690031100566</v>
+        <v>-0.02084294014002273</v>
       </c>
       <c r="E13">
-        <v>0.01614076678535862</v>
+        <v>-0.0005045162784621772</v>
       </c>
       <c r="F13">
-        <v>0.1038226989154038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02519342377760411</v>
+      </c>
+      <c r="G13">
+        <v>0.08393886998645667</v>
+      </c>
+      <c r="H13">
+        <v>0.03820905684513263</v>
+      </c>
+      <c r="I13">
+        <v>0.03354448458081988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02274652144437312</v>
+        <v>0.01939012287121823</v>
       </c>
       <c r="C14">
-        <v>0.01392234226771993</v>
+        <v>-0.01849553154272329</v>
       </c>
       <c r="D14">
-        <v>-0.0421498524483054</v>
+        <v>0.003669176672252188</v>
       </c>
       <c r="E14">
-        <v>-0.0194789754847439</v>
+        <v>-0.02228121194295208</v>
       </c>
       <c r="F14">
-        <v>0.03910626996649246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01817611760451031</v>
+      </c>
+      <c r="G14">
+        <v>0.03623042089031545</v>
+      </c>
+      <c r="H14">
+        <v>0.06362465116469372</v>
+      </c>
+      <c r="I14">
+        <v>0.01599035464984693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03886347626741798</v>
+        <v>0.03427542724268302</v>
       </c>
       <c r="C16">
-        <v>0.001069751057706927</v>
+        <v>-0.03523464400146664</v>
       </c>
       <c r="D16">
-        <v>-0.02854197696387807</v>
+        <v>-0.005742244054622214</v>
       </c>
       <c r="E16">
-        <v>-0.009163561026854663</v>
+        <v>-0.01043397908893624</v>
       </c>
       <c r="F16">
-        <v>0.03687305734099062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0102672977512886</v>
+      </c>
+      <c r="G16">
+        <v>0.0315787331539684</v>
+      </c>
+      <c r="H16">
+        <v>0.003471192787972392</v>
+      </c>
+      <c r="I16">
+        <v>0.005228420482934823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05973016922030085</v>
+        <v>0.04510473438090154</v>
       </c>
       <c r="C19">
-        <v>-0.008110315367802705</v>
+        <v>-0.03894014437992789</v>
       </c>
       <c r="D19">
-        <v>-0.04303875700656717</v>
+        <v>-0.01158228039273325</v>
       </c>
       <c r="E19">
-        <v>-0.003128691167157129</v>
+        <v>-0.007682766426590805</v>
       </c>
       <c r="F19">
-        <v>0.08920097621852523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01705273709251153</v>
+      </c>
+      <c r="G19">
+        <v>0.08612049832380771</v>
+      </c>
+      <c r="H19">
+        <v>0.04759971852352448</v>
+      </c>
+      <c r="I19">
+        <v>0.01888435507344853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0222415632831884</v>
+        <v>0.01482632388193448</v>
       </c>
       <c r="C20">
-        <v>0.01100423286017388</v>
+        <v>-0.0201135380119071</v>
       </c>
       <c r="D20">
-        <v>-0.04367640110778286</v>
+        <v>0.0009703346605966301</v>
       </c>
       <c r="E20">
-        <v>-0.03086032187345169</v>
+        <v>-0.01240811642021332</v>
       </c>
       <c r="F20">
-        <v>0.06914422845888646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01716372547092979</v>
+      </c>
+      <c r="G20">
+        <v>0.05544062806964132</v>
+      </c>
+      <c r="H20">
+        <v>0.06101393779335477</v>
+      </c>
+      <c r="I20">
+        <v>0.004773661283319975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02102267712259558</v>
+        <v>0.02776046548117573</v>
       </c>
       <c r="C21">
-        <v>-0.00929982482983405</v>
+        <v>-0.02452889293420086</v>
       </c>
       <c r="D21">
-        <v>-0.03563817834414217</v>
+        <v>0.007758623118442512</v>
       </c>
       <c r="E21">
-        <v>-0.004021139209071904</v>
+        <v>-0.005403906467462916</v>
       </c>
       <c r="F21">
-        <v>0.08910890621912243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.005551686777649068</v>
+      </c>
+      <c r="G21">
+        <v>0.06460590929149002</v>
+      </c>
+      <c r="H21">
+        <v>0.0269025434529428</v>
+      </c>
+      <c r="I21">
+        <v>0.05183596167814736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03889349041843639</v>
+        <v>0.03268264184838503</v>
       </c>
       <c r="C24">
-        <v>3.019539034349063e-07</v>
+        <v>-0.03194536315157989</v>
       </c>
       <c r="D24">
-        <v>-0.02623634366547575</v>
+        <v>-0.004561416829180847</v>
       </c>
       <c r="E24">
-        <v>-0.0111518269248504</v>
+        <v>-0.007751650607993398</v>
       </c>
       <c r="F24">
-        <v>0.04846342421459568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.009841922797107529</v>
+      </c>
+      <c r="G24">
+        <v>0.03561545468361992</v>
+      </c>
+      <c r="H24">
+        <v>0.0006324555542724019</v>
+      </c>
+      <c r="I24">
+        <v>0.008450294102317877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0410417201280432</v>
+        <v>0.04110088838703099</v>
       </c>
       <c r="C25">
-        <v>0.002552698075450633</v>
+        <v>-0.0311256045316885</v>
       </c>
       <c r="D25">
-        <v>-0.02881466796845709</v>
+        <v>-0.005297222997467587</v>
       </c>
       <c r="E25">
-        <v>-0.01494304921532977</v>
+        <v>-0.006147934184851938</v>
       </c>
       <c r="F25">
-        <v>0.05589912136115562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01726466982320396</v>
+      </c>
+      <c r="G25">
+        <v>0.04594358285712624</v>
+      </c>
+      <c r="H25">
+        <v>-0.003193902904572287</v>
+      </c>
+      <c r="I25">
+        <v>0.01649418732933377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01832443281594172</v>
+        <v>0.01305819514626083</v>
       </c>
       <c r="C26">
-        <v>-0.00616622156659117</v>
+        <v>-0.02083312211669462</v>
       </c>
       <c r="D26">
-        <v>-0.05383266057085823</v>
+        <v>-0.008913167622292502</v>
       </c>
       <c r="E26">
-        <v>-0.001525851852676305</v>
+        <v>0.006358153649849838</v>
       </c>
       <c r="F26">
-        <v>0.03857298809719253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02036628864113189</v>
+      </c>
+      <c r="G26">
+        <v>0.03991600496429976</v>
+      </c>
+      <c r="H26">
+        <v>0.0389958974489833</v>
+      </c>
+      <c r="I26">
+        <v>0.01368386877843775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1024172659061388</v>
+        <v>0.05777963928640006</v>
       </c>
       <c r="C27">
-        <v>0.03383161359299569</v>
+        <v>-0.02191376551250831</v>
       </c>
       <c r="D27">
-        <v>-0.04168390375565677</v>
+        <v>-0.0009186955454512465</v>
       </c>
       <c r="E27">
-        <v>-0.03710686187412127</v>
+        <v>-0.02383702752824732</v>
       </c>
       <c r="F27">
-        <v>0.0500570202904105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01135882729378703</v>
+      </c>
+      <c r="G27">
+        <v>0.04080473896213354</v>
+      </c>
+      <c r="H27">
+        <v>0.03488711324403353</v>
+      </c>
+      <c r="I27">
+        <v>0.0183618190490746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.06059482241250785</v>
+        <v>0.09731676118840814</v>
       </c>
       <c r="C28">
-        <v>0.1129908094047838</v>
+        <v>0.2385897737023857</v>
       </c>
       <c r="D28">
-        <v>0.1850025719113134</v>
+        <v>0.02132371712792413</v>
       </c>
       <c r="E28">
-        <v>0.1143905822145552</v>
+        <v>0.01641003992002392</v>
       </c>
       <c r="F28">
-        <v>0.01037655571678228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.07353081148459793</v>
+      </c>
+      <c r="G28">
+        <v>0.02367639854552623</v>
+      </c>
+      <c r="H28">
+        <v>0.05128520548308951</v>
+      </c>
+      <c r="I28">
+        <v>0.03012237478138357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02455851830256166</v>
+        <v>0.0211558417186459</v>
       </c>
       <c r="C29">
-        <v>0.008499631946469874</v>
+        <v>-0.01971160103713669</v>
       </c>
       <c r="D29">
-        <v>-0.0434244061516695</v>
+        <v>0.0051167269891502</v>
       </c>
       <c r="E29">
-        <v>-0.03179914872405208</v>
+        <v>-0.02097181740481084</v>
       </c>
       <c r="F29">
-        <v>0.02082626820921225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02448155956589588</v>
+      </c>
+      <c r="G29">
+        <v>0.02865996727899953</v>
+      </c>
+      <c r="H29">
+        <v>0.06141608118887552</v>
+      </c>
+      <c r="I29">
+        <v>0.01936378310340189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09772207536161777</v>
+        <v>0.07871101294788459</v>
       </c>
       <c r="C30">
-        <v>0.04796111627583112</v>
+        <v>-0.04774792882456926</v>
       </c>
       <c r="D30">
-        <v>-0.07040599790672485</v>
+        <v>-0.0492814591292831</v>
       </c>
       <c r="E30">
-        <v>-0.01845155749494856</v>
+        <v>-0.03529688857510627</v>
       </c>
       <c r="F30">
-        <v>0.1038071577950751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04324506918127043</v>
+      </c>
+      <c r="G30">
+        <v>0.09662990105689355</v>
+      </c>
+      <c r="H30">
+        <v>0.01480781458057049</v>
+      </c>
+      <c r="I30">
+        <v>-0.005750472718436819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05558880441363029</v>
+        <v>0.05324831577100732</v>
       </c>
       <c r="C31">
-        <v>0.01424510984950689</v>
+        <v>-0.01944359643405036</v>
       </c>
       <c r="D31">
-        <v>-0.03550208801143783</v>
+        <v>-0.01005849421392608</v>
       </c>
       <c r="E31">
-        <v>0.02454195219064575</v>
+        <v>-0.02407895845413227</v>
       </c>
       <c r="F31">
-        <v>-0.01815624327178537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.008775265337340065</v>
+      </c>
+      <c r="G31">
+        <v>-0.0009563572965626362</v>
+      </c>
+      <c r="H31">
+        <v>0.05602335562033103</v>
+      </c>
+      <c r="I31">
+        <v>0.04128938396155855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05302938309605541</v>
+        <v>0.02955867366569799</v>
       </c>
       <c r="C32">
-        <v>0.01126609489762056</v>
+        <v>-0.04037476602395712</v>
       </c>
       <c r="D32">
-        <v>-0.05531597853167059</v>
+        <v>0.00887570725286841</v>
       </c>
       <c r="E32">
-        <v>-0.03373355833887143</v>
+        <v>-0.04031254614555679</v>
       </c>
       <c r="F32">
-        <v>0.07939950632061732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02202894355955724</v>
+      </c>
+      <c r="G32">
+        <v>0.08532812072546596</v>
+      </c>
+      <c r="H32">
+        <v>0.005799357871266125</v>
+      </c>
+      <c r="I32">
+        <v>0.003191061928080834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.04985568937347918</v>
+        <v>0.04286218843375317</v>
       </c>
       <c r="C33">
-        <v>-0.007484190318866792</v>
+        <v>-0.04729940336812798</v>
       </c>
       <c r="D33">
-        <v>-0.07751536376112009</v>
+        <v>-0.02729570361845396</v>
       </c>
       <c r="E33">
-        <v>-0.01337379761069982</v>
+        <v>-0.004503369421219817</v>
       </c>
       <c r="F33">
-        <v>0.07061211717671721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01225668246139851</v>
+      </c>
+      <c r="G33">
+        <v>0.0661686540205339</v>
+      </c>
+      <c r="H33">
+        <v>0.0488563519854013</v>
+      </c>
+      <c r="I33">
+        <v>0.03504401819201074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04026241223781787</v>
+        <v>0.0356633049559233</v>
       </c>
       <c r="C34">
-        <v>0.007982180031331157</v>
+        <v>-0.03742205750025443</v>
       </c>
       <c r="D34">
-        <v>-0.03406571169244307</v>
+        <v>0.0002658013048723177</v>
       </c>
       <c r="E34">
-        <v>-0.01676276150247465</v>
+        <v>-0.02041069810590804</v>
       </c>
       <c r="F34">
-        <v>0.04146245658663074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.009672319431893244</v>
+      </c>
+      <c r="G34">
+        <v>0.03781593717400046</v>
+      </c>
+      <c r="H34">
+        <v>0.002947566351968051</v>
+      </c>
+      <c r="I34">
+        <v>0.01187904932237403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01561909439046601</v>
+        <v>0.01767640845698453</v>
       </c>
       <c r="C36">
-        <v>0.01333869089950649</v>
+        <v>-0.001109092309804753</v>
       </c>
       <c r="D36">
-        <v>-0.01241924895228814</v>
+        <v>0.002629256741389213</v>
       </c>
       <c r="E36">
-        <v>-0.009649952718718097</v>
+        <v>-0.007337414458725222</v>
       </c>
       <c r="F36">
-        <v>0.02427443078017473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01226977460788976</v>
+      </c>
+      <c r="G36">
+        <v>0.0237940214425142</v>
+      </c>
+      <c r="H36">
+        <v>0.03503289743357049</v>
+      </c>
+      <c r="I36">
+        <v>0.02384556328117789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01755468356720858</v>
+        <v>0.02124708405881053</v>
       </c>
       <c r="C38">
-        <v>0.006814410142303374</v>
+        <v>-0.008674131197403493</v>
       </c>
       <c r="D38">
-        <v>0.008984473593683713</v>
+        <v>0.00433745356034664</v>
       </c>
       <c r="E38">
-        <v>-0.006536834682164534</v>
+        <v>-0.01303457244467189</v>
       </c>
       <c r="F38">
-        <v>0.01312883255816588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0177324310373773</v>
+      </c>
+      <c r="G38">
+        <v>0.04033138645204327</v>
+      </c>
+      <c r="H38">
+        <v>0.02657902214477417</v>
+      </c>
+      <c r="I38">
+        <v>0.02917401442864267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05681053343358937</v>
+        <v>0.04199531771124809</v>
       </c>
       <c r="C39">
-        <v>0.007588007163122417</v>
+        <v>-0.05190975161852381</v>
       </c>
       <c r="D39">
-        <v>-0.04803287022643663</v>
+        <v>-0.01352921974690176</v>
       </c>
       <c r="E39">
-        <v>-0.002906008784259223</v>
+        <v>-0.01464938127868415</v>
       </c>
       <c r="F39">
-        <v>0.03961722731966383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.02737846736434572</v>
+      </c>
+      <c r="G39">
+        <v>0.05643461316926918</v>
+      </c>
+      <c r="H39">
+        <v>-0.005960824196784652</v>
+      </c>
+      <c r="I39">
+        <v>0.02324034126297576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05310212327185264</v>
+        <v>0.04385352195781562</v>
       </c>
       <c r="C40">
-        <v>0.02650917349787711</v>
+        <v>-0.03705361731687682</v>
       </c>
       <c r="D40">
-        <v>-0.07882655650143308</v>
+        <v>-0.02928553799616605</v>
       </c>
       <c r="E40">
-        <v>0.0119684423793559</v>
+        <v>-0.02131576022765886</v>
       </c>
       <c r="F40">
-        <v>0.07887012152552414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02686100602386692</v>
+      </c>
+      <c r="G40">
+        <v>0.07496745034577962</v>
+      </c>
+      <c r="H40">
+        <v>0.03742586449581637</v>
+      </c>
+      <c r="I40">
+        <v>0.03154333823007043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01010527504842536</v>
+        <v>0.001071596949571634</v>
       </c>
       <c r="C41">
-        <v>-0.004574450054463156</v>
+        <v>-0.002362196127378956</v>
       </c>
       <c r="D41">
-        <v>-0.02451634327089787</v>
+        <v>-0.0001635936773040252</v>
       </c>
       <c r="E41">
-        <v>-0.01352868541871657</v>
+        <v>-0.005345129190183261</v>
       </c>
       <c r="F41">
-        <v>-0.008514767691466875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0008359821615070828</v>
+      </c>
+      <c r="G41">
+        <v>0.002936361003720743</v>
+      </c>
+      <c r="H41">
+        <v>0.05215215214164055</v>
+      </c>
+      <c r="I41">
+        <v>0.03625937165900891</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.331221744773181</v>
+        <v>0.2342219474814156</v>
       </c>
       <c r="C42">
-        <v>-0.8711324918258656</v>
+        <v>-0.3061820950806057</v>
       </c>
       <c r="D42">
-        <v>0.1844837736174287</v>
+        <v>-0.09033002988317343</v>
       </c>
       <c r="E42">
-        <v>0.2533542623312691</v>
+        <v>0.8028592688685845</v>
       </c>
       <c r="F42">
-        <v>-0.04549090208220423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3873290666667542</v>
+      </c>
+      <c r="G42">
+        <v>-0.1489614759997128</v>
+      </c>
+      <c r="H42">
+        <v>-0.01465303441795751</v>
+      </c>
+      <c r="I42">
+        <v>-0.01006530058007659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0103817637455637</v>
+        <v>0.002120236055018457</v>
       </c>
       <c r="C43">
-        <v>-0.002635579763316063</v>
+        <v>-0.002911284508399859</v>
       </c>
       <c r="D43">
-        <v>-0.02678546560367661</v>
+        <v>-0.003387664540107617</v>
       </c>
       <c r="E43">
-        <v>-0.006148187271978296</v>
+        <v>-0.001177998606942773</v>
       </c>
       <c r="F43">
-        <v>0.02305527554124642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005103095986917741</v>
+      </c>
+      <c r="G43">
+        <v>0.01306977280317127</v>
+      </c>
+      <c r="H43">
+        <v>0.04694463567585568</v>
+      </c>
+      <c r="I43">
+        <v>0.02057537355167572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02618529846154452</v>
+        <v>0.01644696967764643</v>
       </c>
       <c r="C44">
-        <v>-0.005791307075699979</v>
+        <v>-0.03327177680605153</v>
       </c>
       <c r="D44">
-        <v>-0.06289756179787154</v>
+        <v>-0.001388356461155226</v>
       </c>
       <c r="E44">
-        <v>-0.01922379664474066</v>
+        <v>-0.003306133420511082</v>
       </c>
       <c r="F44">
-        <v>0.1118800486604082</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.008770263097031473</v>
+      </c>
+      <c r="G44">
+        <v>0.1089757958851025</v>
+      </c>
+      <c r="H44">
+        <v>0.09890950393168932</v>
+      </c>
+      <c r="I44">
+        <v>0.04727947886174644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02826081889284772</v>
+        <v>0.02095403216496177</v>
       </c>
       <c r="C46">
-        <v>0.007933197834569278</v>
+        <v>-0.03039956828978227</v>
       </c>
       <c r="D46">
-        <v>-0.05551781177680506</v>
+        <v>-0.008788906092709716</v>
       </c>
       <c r="E46">
-        <v>-0.01839940972693045</v>
+        <v>-0.02375265643552532</v>
       </c>
       <c r="F46">
-        <v>0.01600961015922916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.02812646659586156</v>
+      </c>
+      <c r="G46">
+        <v>0.04195536090551726</v>
+      </c>
+      <c r="H46">
+        <v>0.06534982252152001</v>
+      </c>
+      <c r="I46">
+        <v>0.01893529610682045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08248840620390401</v>
+        <v>0.07960558806748042</v>
       </c>
       <c r="C47">
-        <v>0.02113464444557723</v>
+        <v>-0.03167258901529414</v>
       </c>
       <c r="D47">
-        <v>-0.0396407737541658</v>
+        <v>-0.00667077539305958</v>
       </c>
       <c r="E47">
-        <v>-0.01824135088977604</v>
+        <v>-0.03514168468131258</v>
       </c>
       <c r="F47">
-        <v>-0.02865319092113859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002906560645596079</v>
+      </c>
+      <c r="G47">
+        <v>-0.02546065387467807</v>
+      </c>
+      <c r="H47">
+        <v>0.06871517752468305</v>
+      </c>
+      <c r="I47">
+        <v>0.02514354887565298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01215795130662821</v>
+        <v>0.01944451622845431</v>
       </c>
       <c r="C48">
-        <v>0.007770465912297459</v>
+        <v>-0.0122081327959567</v>
       </c>
       <c r="D48">
-        <v>-0.03282085742434344</v>
+        <v>-0.001204003913833632</v>
       </c>
       <c r="E48">
-        <v>-0.01197018035464311</v>
+        <v>-0.01003693229467928</v>
       </c>
       <c r="F48">
-        <v>0.03394579378546676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01285746223464437</v>
+      </c>
+      <c r="G48">
+        <v>0.02577949120401921</v>
+      </c>
+      <c r="H48">
+        <v>0.03113912543661762</v>
+      </c>
+      <c r="I48">
+        <v>0.01719568851889374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08121011172881464</v>
+        <v>0.07881662114692412</v>
       </c>
       <c r="C50">
-        <v>0.003483483160183541</v>
+        <v>-0.04605635625323651</v>
       </c>
       <c r="D50">
-        <v>-0.03715726441762021</v>
+        <v>0.004320710841500803</v>
       </c>
       <c r="E50">
-        <v>0.003780097025848956</v>
+        <v>-0.0203844964111356</v>
       </c>
       <c r="F50">
-        <v>-0.008048647685813927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.002278660759975559</v>
+      </c>
+      <c r="G50">
+        <v>-0.007196501117192619</v>
+      </c>
+      <c r="H50">
+        <v>0.05027228377218423</v>
+      </c>
+      <c r="I50">
+        <v>-0.006499439755770537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04809139985127596</v>
+        <v>0.03142795627397339</v>
       </c>
       <c r="C51">
-        <v>-0.002203985997730059</v>
+        <v>0.004496630742136336</v>
       </c>
       <c r="D51">
-        <v>-0.02371741486526288</v>
+        <v>-0.0104075711023548</v>
       </c>
       <c r="E51">
-        <v>0.04034245283054558</v>
+        <v>0.009985822240073538</v>
       </c>
       <c r="F51">
-        <v>0.07300920532909712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.009760576111720053</v>
+      </c>
+      <c r="G51">
+        <v>0.08462144938432929</v>
+      </c>
+      <c r="H51">
+        <v>0.08442157891189833</v>
+      </c>
+      <c r="I51">
+        <v>0.05204810018416216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1183918014931093</v>
+        <v>0.1082409335928371</v>
       </c>
       <c r="C53">
-        <v>0.02079608942539427</v>
+        <v>-0.05832999832528246</v>
       </c>
       <c r="D53">
-        <v>-0.07206895888436388</v>
+        <v>-0.01187225146497336</v>
       </c>
       <c r="E53">
-        <v>-0.01428812522196249</v>
+        <v>-0.04841677483680221</v>
       </c>
       <c r="F53">
-        <v>-0.07266290272669594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02149480477522667</v>
+      </c>
+      <c r="G53">
+        <v>-0.05644569295306058</v>
+      </c>
+      <c r="H53">
+        <v>0.02412220483490484</v>
+      </c>
+      <c r="I53">
+        <v>0.01823462369022255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02389843519193646</v>
+        <v>0.02638361555183138</v>
       </c>
       <c r="C54">
-        <v>0.02254506933026133</v>
+        <v>-0.005670915768482341</v>
       </c>
       <c r="D54">
-        <v>-0.0275763792372673</v>
+        <v>0.003696636194129574</v>
       </c>
       <c r="E54">
-        <v>-0.01575767589218872</v>
+        <v>-0.02927299465251702</v>
       </c>
       <c r="F54">
-        <v>0.03677395282920092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01103191655428881</v>
+      </c>
+      <c r="G54">
+        <v>0.03112337585764949</v>
+      </c>
+      <c r="H54">
+        <v>0.06146896443592106</v>
+      </c>
+      <c r="I54">
+        <v>0.0265917297015988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1070653470217469</v>
+        <v>0.09443758944997564</v>
       </c>
       <c r="C55">
-        <v>0.02171890154990947</v>
+        <v>-0.05369397080561043</v>
       </c>
       <c r="D55">
-        <v>-0.02438123541372859</v>
+        <v>0.004105659802083391</v>
       </c>
       <c r="E55">
-        <v>-0.04350194930173946</v>
+        <v>-0.04114764951365262</v>
       </c>
       <c r="F55">
-        <v>-0.03781143944202677</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01025860846082519</v>
+      </c>
+      <c r="G55">
+        <v>-0.04536350691637689</v>
+      </c>
+      <c r="H55">
+        <v>0.02660910367612859</v>
+      </c>
+      <c r="I55">
+        <v>-0.01898076811416465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1406590188295732</v>
+        <v>0.1435097753289331</v>
       </c>
       <c r="C56">
-        <v>0.06156132326038109</v>
+        <v>-0.05539025225986187</v>
       </c>
       <c r="D56">
-        <v>-0.05129429927515625</v>
+        <v>-0.004566844911743305</v>
       </c>
       <c r="E56">
-        <v>-0.04594208471353713</v>
+        <v>-0.07605427077117113</v>
       </c>
       <c r="F56">
-        <v>-0.1105943692816939</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0343104205776375</v>
+      </c>
+      <c r="G56">
+        <v>-0.10085911044621</v>
+      </c>
+      <c r="H56">
+        <v>-0.0102119248515633</v>
+      </c>
+      <c r="I56">
+        <v>-0.01923067719729148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06433421005982355</v>
+        <v>0.05583718376631421</v>
       </c>
       <c r="C57">
-        <v>0.01439345750641383</v>
+        <v>-0.02182505164100466</v>
       </c>
       <c r="D57">
-        <v>-0.05048692188517879</v>
+        <v>-0.02192601128334274</v>
       </c>
       <c r="E57">
-        <v>0.01231784911600412</v>
+        <v>0.01229345479845814</v>
       </c>
       <c r="F57">
-        <v>0.06147343401506611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03515716970075748</v>
+      </c>
+      <c r="G57">
+        <v>0.05532948365373922</v>
+      </c>
+      <c r="H57">
+        <v>0.03224203152615005</v>
+      </c>
+      <c r="I57">
+        <v>0.02801309520360173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2155361666399509</v>
+        <v>0.1912686720568225</v>
       </c>
       <c r="C58">
-        <v>0.0215405222398892</v>
+        <v>-0.1100729977905529</v>
       </c>
       <c r="D58">
-        <v>-0.140460732560668</v>
+        <v>-0.1152032301380189</v>
       </c>
       <c r="E58">
-        <v>-0.001432094411976854</v>
+        <v>0.02320122522738674</v>
       </c>
       <c r="F58">
-        <v>0.2648334889650549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05341279751092802</v>
+      </c>
+      <c r="G58">
+        <v>0.3722610591146956</v>
+      </c>
+      <c r="H58">
+        <v>0.383999993404302</v>
+      </c>
+      <c r="I58">
+        <v>-0.3343230420567758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.05962537833689829</v>
+        <v>0.09928742733049981</v>
       </c>
       <c r="C59">
-        <v>0.1251977899301123</v>
+        <v>0.2082718964203464</v>
       </c>
       <c r="D59">
-        <v>0.129816597238987</v>
+        <v>0.002284189372222419</v>
       </c>
       <c r="E59">
-        <v>0.07387345062822434</v>
+        <v>-0.008283237388656649</v>
       </c>
       <c r="F59">
-        <v>0.0225549948405377</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04108305843287651</v>
+      </c>
+      <c r="G59">
+        <v>0.04617192237798864</v>
+      </c>
+      <c r="H59">
+        <v>0.02479089867982635</v>
+      </c>
+      <c r="I59">
+        <v>0.0217456737545112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1820849885181143</v>
+        <v>0.198785672769366</v>
       </c>
       <c r="C60">
-        <v>0.07657232729455726</v>
+        <v>0.02632272915583115</v>
       </c>
       <c r="D60">
-        <v>-0.01290039323494987</v>
+        <v>-0.0592703447714421</v>
       </c>
       <c r="E60">
-        <v>0.08621989133804657</v>
+        <v>-0.02012791336973794</v>
       </c>
       <c r="F60">
-        <v>0.1464309701429928</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03595066242938766</v>
+      </c>
+      <c r="G60">
+        <v>0.2084685915851428</v>
+      </c>
+      <c r="H60">
+        <v>-0.3528008964087116</v>
+      </c>
+      <c r="I60">
+        <v>0.05338659453787374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0341276169309605</v>
+        <v>0.03543814071224683</v>
       </c>
       <c r="C61">
-        <v>0.006210956229655256</v>
+        <v>-0.03548033517133734</v>
       </c>
       <c r="D61">
-        <v>-0.02000008385874629</v>
+        <v>-0.004411924926098118</v>
       </c>
       <c r="E61">
-        <v>-0.01386090385390015</v>
+        <v>-0.01385522361333184</v>
       </c>
       <c r="F61">
-        <v>0.03606731509604656</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01926701982129801</v>
+      </c>
+      <c r="G61">
+        <v>0.0371864551033018</v>
+      </c>
+      <c r="H61">
+        <v>-0.01563295648636215</v>
+      </c>
+      <c r="I61">
+        <v>0.01627594155619689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03085756086900753</v>
+        <v>0.02540198231868385</v>
       </c>
       <c r="C63">
-        <v>0.01646085118384093</v>
+        <v>-0.02448400277461763</v>
       </c>
       <c r="D63">
-        <v>-0.04327488163533973</v>
+        <v>-0.005058668039082306</v>
       </c>
       <c r="E63">
-        <v>-0.01237192067968244</v>
+        <v>-0.01679977936626741</v>
       </c>
       <c r="F63">
-        <v>0.04638619068740614</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01378246963567503</v>
+      </c>
+      <c r="G63">
+        <v>0.02638298070530803</v>
+      </c>
+      <c r="H63">
+        <v>0.04855088219020893</v>
+      </c>
+      <c r="I63">
+        <v>-0.001085654323581592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04901346973838522</v>
+        <v>0.04879543001266688</v>
       </c>
       <c r="C64">
-        <v>0.006492930151803872</v>
+        <v>-0.04574396906870665</v>
       </c>
       <c r="D64">
-        <v>-0.05108223400897542</v>
+        <v>0.004051510105012241</v>
       </c>
       <c r="E64">
-        <v>-0.05550170518618031</v>
+        <v>-0.02385923794544086</v>
       </c>
       <c r="F64">
-        <v>0.04415946524555727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01725391199167673</v>
+      </c>
+      <c r="G64">
+        <v>0.03877527314072509</v>
+      </c>
+      <c r="H64">
+        <v>0.03503534707534393</v>
+      </c>
+      <c r="I64">
+        <v>0.05858091548106525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.004203823149882815</v>
+        <v>0.03091099388571232</v>
       </c>
       <c r="C65">
-        <v>-0.0007396232258012843</v>
+        <v>-0.01921389865590065</v>
       </c>
       <c r="D65">
-        <v>0.0007980193842034332</v>
+        <v>-0.0003572159453058631</v>
       </c>
       <c r="E65">
-        <v>0.005438053649123264</v>
+        <v>-0.003001256413988168</v>
       </c>
       <c r="F65">
-        <v>0.002235311433179643</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02736971200064759</v>
+      </c>
+      <c r="G65">
+        <v>0.01314265387651217</v>
+      </c>
+      <c r="H65">
+        <v>-0.03736723749757135</v>
+      </c>
+      <c r="I65">
+        <v>-0.006417937542931831</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05293983252374647</v>
+        <v>0.04896147028199384</v>
       </c>
       <c r="C66">
-        <v>0.0207246437859529</v>
+        <v>-0.06019079610294979</v>
       </c>
       <c r="D66">
-        <v>-0.06376948642158801</v>
+        <v>-0.02181234634410043</v>
       </c>
       <c r="E66">
-        <v>-0.024042768940743</v>
+        <v>-0.03737550092279188</v>
       </c>
       <c r="F66">
-        <v>0.08017220856953994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03894574695129287</v>
+      </c>
+      <c r="G66">
+        <v>0.06810112152062797</v>
+      </c>
+      <c r="H66">
+        <v>-0.01936080220622364</v>
+      </c>
+      <c r="I66">
+        <v>0.01079248709363566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03584140422219355</v>
+        <v>0.0407472843345438</v>
       </c>
       <c r="C67">
-        <v>0.01688988281865079</v>
+        <v>0.001659412918179452</v>
       </c>
       <c r="D67">
-        <v>0.0196388985710575</v>
+        <v>0.0008226727218286889</v>
       </c>
       <c r="E67">
-        <v>0.007498740934357288</v>
+        <v>-0.01481674629225899</v>
       </c>
       <c r="F67">
-        <v>0.01918303072482314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01378165380475213</v>
+      </c>
+      <c r="G67">
+        <v>0.03365111819608958</v>
+      </c>
+      <c r="H67">
+        <v>0.004883450429768588</v>
+      </c>
+      <c r="I67">
+        <v>0.04549171914675038</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07406897563645605</v>
+        <v>0.1021563695791953</v>
       </c>
       <c r="C68">
-        <v>0.1181052957630051</v>
+        <v>0.2322899141905776</v>
       </c>
       <c r="D68">
-        <v>0.186261349442571</v>
+        <v>0.009138393659443017</v>
       </c>
       <c r="E68">
-        <v>0.1063848797323294</v>
+        <v>0.02261335787746123</v>
       </c>
       <c r="F68">
-        <v>-0.01775497296812154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04631951688389144</v>
+      </c>
+      <c r="G68">
+        <v>0.0007844218924650991</v>
+      </c>
+      <c r="H68">
+        <v>0.04311728714021207</v>
+      </c>
+      <c r="I68">
+        <v>-0.016907481350995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07095917727180596</v>
+        <v>0.0675151655243168</v>
       </c>
       <c r="C69">
-        <v>0.0270481327753987</v>
+        <v>-0.02599231939590947</v>
       </c>
       <c r="D69">
-        <v>-0.0244514296050866</v>
+        <v>-0.008629331654610601</v>
       </c>
       <c r="E69">
-        <v>0.000846344476363167</v>
+        <v>-0.03784351071574123</v>
       </c>
       <c r="F69">
-        <v>-0.01304260062895277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0071254904488172</v>
+      </c>
+      <c r="G69">
+        <v>-0.009914302779982849</v>
+      </c>
+      <c r="H69">
+        <v>0.04376284934025527</v>
+      </c>
+      <c r="I69">
+        <v>0.02248146654012181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.07059904608741718</v>
+        <v>0.09936800574968722</v>
       </c>
       <c r="C71">
-        <v>0.1446754755387797</v>
+        <v>0.2512642860506193</v>
       </c>
       <c r="D71">
-        <v>0.2323877286733051</v>
+        <v>0.006541250512697511</v>
       </c>
       <c r="E71">
-        <v>0.1804221539580153</v>
+        <v>0.02852492470261836</v>
       </c>
       <c r="F71">
-        <v>0.01605094774058615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07740492220955804</v>
+      </c>
+      <c r="G71">
+        <v>0.0279831799116741</v>
+      </c>
+      <c r="H71">
+        <v>0.02585344596038674</v>
+      </c>
+      <c r="I71">
+        <v>0.01276317000536252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1267746157520091</v>
+        <v>0.1300347371274194</v>
       </c>
       <c r="C72">
-        <v>0.081824417394718</v>
+        <v>-0.0667389299164354</v>
       </c>
       <c r="D72">
-        <v>-0.05504238906285975</v>
+        <v>-0.02318398621979779</v>
       </c>
       <c r="E72">
-        <v>-0.01937048005720726</v>
+        <v>-0.09825525321501342</v>
       </c>
       <c r="F72">
-        <v>0.04771409633369947</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02702378536903241</v>
+      </c>
+      <c r="G72">
+        <v>0.1025513537940076</v>
+      </c>
+      <c r="H72">
+        <v>-0.08671925496598734</v>
+      </c>
+      <c r="I72">
+        <v>0.01795612974730502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2736023748074925</v>
+        <v>0.2753267548173534</v>
       </c>
       <c r="C73">
-        <v>0.1178880570019308</v>
+        <v>0.02179055499941248</v>
       </c>
       <c r="D73">
-        <v>0.03058931245162511</v>
+        <v>-0.09578399153201278</v>
       </c>
       <c r="E73">
-        <v>0.1286553107489757</v>
+        <v>-0.001379547246409995</v>
       </c>
       <c r="F73">
-        <v>0.2676839986495139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.01067392246993198</v>
+      </c>
+      <c r="G73">
+        <v>0.3001400905405499</v>
+      </c>
+      <c r="H73">
+        <v>-0.5219551645780842</v>
+      </c>
+      <c r="I73">
+        <v>0.01893627609878099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1388187042522062</v>
+        <v>0.1355235168759521</v>
       </c>
       <c r="C74">
-        <v>0.02541139148518815</v>
+        <v>-0.06425074196658877</v>
       </c>
       <c r="D74">
-        <v>-0.04549440024389353</v>
+        <v>-0.01436074421605631</v>
       </c>
       <c r="E74">
-        <v>-0.02240132867063162</v>
+        <v>-0.06160697849938039</v>
       </c>
       <c r="F74">
-        <v>-0.06431797515879717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01152654238143727</v>
+      </c>
+      <c r="G74">
+        <v>-0.07801496279040823</v>
+      </c>
+      <c r="H74">
+        <v>-0.02069565770536319</v>
+      </c>
+      <c r="I74">
+        <v>-0.009009719340348263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2166649221327272</v>
+        <v>0.235345076629453</v>
       </c>
       <c r="C75">
-        <v>0.08508552342338328</v>
+        <v>-0.07279583708635956</v>
       </c>
       <c r="D75">
-        <v>-0.09514800390260124</v>
+        <v>-0.03646329678321105</v>
       </c>
       <c r="E75">
-        <v>-0.02123918685415845</v>
+        <v>-0.1228402015815397</v>
       </c>
       <c r="F75">
-        <v>-0.1590247384026304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04671516725434047</v>
+      </c>
+      <c r="G75">
+        <v>-0.1524771557018024</v>
+      </c>
+      <c r="H75">
+        <v>0.01642495577330712</v>
+      </c>
+      <c r="I75">
+        <v>0.006019604857226458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2390256605386124</v>
+        <v>0.2391021381565052</v>
       </c>
       <c r="C76">
-        <v>0.09776335153785577</v>
+        <v>-0.08118958592099561</v>
       </c>
       <c r="D76">
-        <v>-0.04904960698887577</v>
+        <v>0.008304729328808498</v>
       </c>
       <c r="E76">
-        <v>-0.08166866203176511</v>
+        <v>-0.146245524465576</v>
       </c>
       <c r="F76">
-        <v>-0.1494189440912389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.0398361965254637</v>
+      </c>
+      <c r="G76">
+        <v>-0.1968603256889197</v>
+      </c>
+      <c r="H76">
+        <v>0.002833348902114053</v>
+      </c>
+      <c r="I76">
+        <v>-0.07185356803604628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1454922669160607</v>
+        <v>0.1000535375619844</v>
       </c>
       <c r="C77">
-        <v>-0.03280536595930568</v>
+        <v>-0.07959684747682227</v>
       </c>
       <c r="D77">
-        <v>-0.07712722567701624</v>
+        <v>-0.02295604586161</v>
       </c>
       <c r="E77">
-        <v>-0.001352599420845503</v>
+        <v>0.04740156230360822</v>
       </c>
       <c r="F77">
-        <v>0.2064903281489611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.008041209305681807</v>
+      </c>
+      <c r="G77">
+        <v>0.1471207902763675</v>
+      </c>
+      <c r="H77">
+        <v>0.2239023335148977</v>
+      </c>
+      <c r="I77">
+        <v>-0.0661486171761292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0803910186742053</v>
+        <v>0.05673076585440481</v>
       </c>
       <c r="C78">
-        <v>-0.01818201899528732</v>
+        <v>-0.0673388510223243</v>
       </c>
       <c r="D78">
-        <v>-0.08298337033197839</v>
+        <v>-0.007558657315651122</v>
       </c>
       <c r="E78">
-        <v>-0.04598171602059102</v>
+        <v>-0.01102567350513347</v>
       </c>
       <c r="F78">
-        <v>0.04488424161997542</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03937891135501332</v>
+      </c>
+      <c r="G78">
+        <v>0.06690584771965202</v>
+      </c>
+      <c r="H78">
+        <v>0.03113034651083954</v>
+      </c>
+      <c r="I78">
+        <v>0.02082589695966965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1424120195784156</v>
+        <v>0.1622010416393549</v>
       </c>
       <c r="C80">
-        <v>-0.09166237608463278</v>
+        <v>-0.08576656892985446</v>
       </c>
       <c r="D80">
-        <v>0.502590372883736</v>
+        <v>0.9674817554208177</v>
       </c>
       <c r="E80">
-        <v>-0.8191369277669948</v>
+        <v>0.05901419924215053</v>
       </c>
       <c r="F80">
-        <v>0.1070145884858266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01457748493183717</v>
+      </c>
+      <c r="G80">
+        <v>0.07384586343594661</v>
+      </c>
+      <c r="H80">
+        <v>-0.02639536366551961</v>
+      </c>
+      <c r="I80">
+        <v>0.04331620144606237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1673292373042444</v>
+        <v>0.1783001991110984</v>
       </c>
       <c r="C81">
-        <v>0.06759760528368965</v>
+        <v>-0.05749398469144782</v>
       </c>
       <c r="D81">
-        <v>-0.05184748664251392</v>
+        <v>-0.01062188637107971</v>
       </c>
       <c r="E81">
-        <v>-0.03345119010451916</v>
+        <v>-0.1047449438093463</v>
       </c>
       <c r="F81">
-        <v>-0.1607474709852286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03262611509024244</v>
+      </c>
+      <c r="G81">
+        <v>-0.1427656679155012</v>
+      </c>
+      <c r="H81">
+        <v>0.01777817864974373</v>
+      </c>
+      <c r="I81">
+        <v>-0.04725663534516752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.05961245682666393</v>
+        <v>0.04750558675070707</v>
       </c>
       <c r="C83">
-        <v>-0.04454601430145658</v>
+        <v>-0.0455543367442798</v>
       </c>
       <c r="D83">
-        <v>-0.06749673564879843</v>
+        <v>-0.01756710886575279</v>
       </c>
       <c r="E83">
-        <v>-0.004638746017871291</v>
+        <v>0.01393184260336113</v>
       </c>
       <c r="F83">
-        <v>0.03853071892846031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.001352795302897813</v>
+      </c>
+      <c r="G83">
+        <v>0.05060707924210953</v>
+      </c>
+      <c r="H83">
+        <v>0.03045708339416</v>
+      </c>
+      <c r="I83">
+        <v>0.02552389374116871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2190722872928351</v>
+        <v>0.2295927381563871</v>
       </c>
       <c r="C85">
-        <v>0.0461682369460359</v>
+        <v>-0.1039447425105702</v>
       </c>
       <c r="D85">
-        <v>-0.08144711529415098</v>
+        <v>-0.02587365192616874</v>
       </c>
       <c r="E85">
-        <v>-0.06854970676435981</v>
+        <v>-0.102922448212466</v>
       </c>
       <c r="F85">
-        <v>-0.1909620358076896</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.0628480319122192</v>
+      </c>
+      <c r="G85">
+        <v>-0.1920982057161363</v>
+      </c>
+      <c r="H85">
+        <v>0.01006885210783438</v>
+      </c>
+      <c r="I85">
+        <v>-0.02537057309462614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02199697601874543</v>
+        <v>0.01638706385795596</v>
       </c>
       <c r="C86">
-        <v>-0.008843387055526362</v>
+        <v>-0.04473747441131256</v>
       </c>
       <c r="D86">
-        <v>-0.06340942389770041</v>
+        <v>-0.006686859728106301</v>
       </c>
       <c r="E86">
-        <v>-0.01679887750940829</v>
+        <v>-0.02425682098731024</v>
       </c>
       <c r="F86">
-        <v>0.08354130432039053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.0129754763815341</v>
+      </c>
+      <c r="G86">
+        <v>0.08549304738213651</v>
+      </c>
+      <c r="H86">
+        <v>0.06371535313718638</v>
+      </c>
+      <c r="I86">
+        <v>-0.0001357813837701384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01640518045956117</v>
+        <v>0.02542186140188071</v>
       </c>
       <c r="C87">
-        <v>0.03622083660798829</v>
+        <v>0.009718978363531795</v>
       </c>
       <c r="D87">
-        <v>0.04234746938101058</v>
+        <v>0.001692901624007889</v>
       </c>
       <c r="E87">
-        <v>0.03327602425588502</v>
+        <v>-0.00128771586937486</v>
       </c>
       <c r="F87">
-        <v>0.1014235901047505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.003599970978398162</v>
+      </c>
+      <c r="G87">
+        <v>0.1080363534672675</v>
+      </c>
+      <c r="H87">
+        <v>0.00479091952384909</v>
+      </c>
+      <c r="I87">
+        <v>-0.0171967219195212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01292885995784901</v>
+        <v>0.03262465851242645</v>
       </c>
       <c r="C88">
-        <v>0.01186540274560336</v>
+        <v>0.003144344702675733</v>
       </c>
       <c r="D88">
-        <v>0.003626194505311694</v>
+        <v>0.004339470146025088</v>
       </c>
       <c r="E88">
-        <v>-0.01881661856901279</v>
+        <v>-0.01397856854112371</v>
       </c>
       <c r="F88">
-        <v>-0.005798104353366047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.001101497004584119</v>
+      </c>
+      <c r="G88">
+        <v>-0.007881251288437679</v>
+      </c>
+      <c r="H88">
+        <v>0.01756171753490757</v>
+      </c>
+      <c r="I88">
+        <v>0.06045944473010537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1103140907525353</v>
+        <v>0.1672326723968109</v>
       </c>
       <c r="C89">
-        <v>0.1416460892076132</v>
+        <v>0.3766241217588156</v>
       </c>
       <c r="D89">
-        <v>0.2575674382748477</v>
+        <v>-0.0115151430090887</v>
       </c>
       <c r="E89">
-        <v>0.1940355913800851</v>
+        <v>0.04255284301438658</v>
       </c>
       <c r="F89">
-        <v>-0.004251353922051432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.08708135085128658</v>
+      </c>
+      <c r="G89">
+        <v>0.005365571952486461</v>
+      </c>
+      <c r="H89">
+        <v>0.103608575511201</v>
+      </c>
+      <c r="I89">
+        <v>-0.001185314562094167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08981140041190969</v>
+        <v>0.1176583586529066</v>
       </c>
       <c r="C90">
-        <v>0.1384135115521773</v>
+        <v>0.313592862541461</v>
       </c>
       <c r="D90">
-        <v>0.2601288709914718</v>
+        <v>0.01001373810275757</v>
       </c>
       <c r="E90">
-        <v>0.1292196011257045</v>
+        <v>0.0367390387209371</v>
       </c>
       <c r="F90">
-        <v>0.005924298911714556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.08131214835968441</v>
+      </c>
+      <c r="G90">
+        <v>-0.01995618859095557</v>
+      </c>
+      <c r="H90">
+        <v>0.06879961105360877</v>
+      </c>
+      <c r="I90">
+        <v>-0.005403994180375902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2732381433332122</v>
+        <v>0.266485315067078</v>
       </c>
       <c r="C91">
-        <v>0.05148114021137438</v>
+        <v>-0.1263348349283987</v>
       </c>
       <c r="D91">
-        <v>-0.1168193248303229</v>
+        <v>-0.03048827051865009</v>
       </c>
       <c r="E91">
-        <v>-0.08454527218238606</v>
+        <v>-0.1257492540953769</v>
       </c>
       <c r="F91">
-        <v>-0.2540250574770584</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03233234624077004</v>
+      </c>
+      <c r="G91">
+        <v>-0.2556082073480624</v>
+      </c>
+      <c r="H91">
+        <v>0.0333029920442561</v>
+      </c>
+      <c r="I91">
+        <v>-0.07147887723149123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1405713496225969</v>
+        <v>0.2054569383473656</v>
       </c>
       <c r="C92">
-        <v>0.1116428740542661</v>
+        <v>0.3054649869401114</v>
       </c>
       <c r="D92">
-        <v>0.2842324313936112</v>
+        <v>0.02408645158210744</v>
       </c>
       <c r="E92">
-        <v>0.136979391469025</v>
+        <v>0.002077491195765954</v>
       </c>
       <c r="F92">
-        <v>-0.02165424020704306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1482503258273965</v>
+      </c>
+      <c r="G92">
+        <v>-0.07763199036580665</v>
+      </c>
+      <c r="H92">
+        <v>0.1684751782473441</v>
+      </c>
+      <c r="I92">
+        <v>-0.0131529045500499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09385404636918364</v>
+        <v>0.1465556490142158</v>
       </c>
       <c r="C93">
-        <v>0.13653012344572</v>
+        <v>0.374662199950081</v>
       </c>
       <c r="D93">
-        <v>0.318056698106184</v>
+        <v>0.002075478392690355</v>
       </c>
       <c r="E93">
-        <v>0.1739163964122216</v>
+        <v>0.06131682097354386</v>
       </c>
       <c r="F93">
-        <v>-0.05822924872718432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1294536926426252</v>
+      </c>
+      <c r="G93">
+        <v>-0.03443218049563652</v>
+      </c>
+      <c r="H93">
+        <v>0.01512268029597671</v>
+      </c>
+      <c r="I93">
+        <v>0.0284934031327889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.26537666183313</v>
+        <v>0.2931987882906658</v>
       </c>
       <c r="C94">
-        <v>0.1053991064022387</v>
+        <v>-0.03971919296913726</v>
       </c>
       <c r="D94">
-        <v>0.0004352275494064955</v>
+        <v>-0.0400356166813912</v>
       </c>
       <c r="E94">
-        <v>-0.02766154965048263</v>
+        <v>-0.1343883117075837</v>
       </c>
       <c r="F94">
-        <v>-0.2518163483311712</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.06435101473197251</v>
+      </c>
+      <c r="G94">
+        <v>-0.2827219399872552</v>
+      </c>
+      <c r="H94">
+        <v>0.009470892078444241</v>
+      </c>
+      <c r="I94">
+        <v>-0.2230920858206459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1381167161053168</v>
+        <v>0.1160033425703389</v>
       </c>
       <c r="C95">
-        <v>-0.01852335336865898</v>
+        <v>-0.08922438796161099</v>
       </c>
       <c r="D95">
-        <v>-0.1978831079249704</v>
+        <v>-0.09094831908256928</v>
       </c>
       <c r="E95">
-        <v>-0.04453499148290779</v>
+        <v>-0.07040897309439006</v>
       </c>
       <c r="F95">
-        <v>-0.4264494567614256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04054680411125816</v>
+      </c>
+      <c r="G95">
+        <v>-0.08218366453609624</v>
+      </c>
+      <c r="H95">
+        <v>0.1500834041703963</v>
+      </c>
+      <c r="I95">
+        <v>0.8711913243492082</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2065218047831808</v>
+        <v>0.2118607217082447</v>
       </c>
       <c r="C98">
-        <v>0.04914313865322616</v>
+        <v>0.02107681559481903</v>
       </c>
       <c r="D98">
-        <v>0.01060009946662762</v>
+        <v>-0.0632006185976246</v>
       </c>
       <c r="E98">
-        <v>0.09047352988945631</v>
+        <v>0.002946756593310416</v>
       </c>
       <c r="F98">
-        <v>0.1007279638028248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01569528478431792</v>
+      </c>
+      <c r="G98">
+        <v>0.2231331069224615</v>
+      </c>
+      <c r="H98">
+        <v>-0.3642429941413171</v>
+      </c>
+      <c r="I98">
+        <v>0.0284798675479206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001291231911323854</v>
+        <v>0.01410458891422612</v>
       </c>
       <c r="C101">
-        <v>0.01359743309451072</v>
+        <v>-0.02593004561299251</v>
       </c>
       <c r="D101">
-        <v>-0.06320323065082421</v>
+        <v>-0.0003628713247034876</v>
       </c>
       <c r="E101">
-        <v>-0.0412538384316621</v>
+        <v>-0.02429565537328696</v>
       </c>
       <c r="F101">
-        <v>0.02862170573534692</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03338026012445699</v>
+      </c>
+      <c r="G101">
+        <v>0.07053147625648624</v>
+      </c>
+      <c r="H101">
+        <v>0.1192896831601768</v>
+      </c>
+      <c r="I101">
+        <v>-0.01801979291275831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08964696208417358</v>
+        <v>0.1124632728878403</v>
       </c>
       <c r="C102">
-        <v>0.02201216072736261</v>
+        <v>-0.04362390951805516</v>
       </c>
       <c r="D102">
-        <v>-0.04423914624600356</v>
+        <v>-0.006003461488299875</v>
       </c>
       <c r="E102">
-        <v>-0.04817268610256298</v>
+        <v>-0.04682137690211111</v>
       </c>
       <c r="F102">
-        <v>-0.100508062073076</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.03717939126930905</v>
+      </c>
+      <c r="G102">
+        <v>-0.1116419999896899</v>
+      </c>
+      <c r="H102">
+        <v>0.0065151602538132</v>
+      </c>
+      <c r="I102">
+        <v>-0.009128839488229991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01498429755343493</v>
+        <v>0.02407992235587891</v>
       </c>
       <c r="C103">
-        <v>0.009824906143202798</v>
+        <v>-0.01146358186308425</v>
       </c>
       <c r="D103">
-        <v>-0.001960299365944171</v>
+        <v>0.007153434980871507</v>
       </c>
       <c r="E103">
-        <v>-0.00642131584658733</v>
+        <v>-0.0151272047326756</v>
       </c>
       <c r="F103">
-        <v>-0.02089444555403249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.008343346192622676</v>
+      </c>
+      <c r="G103">
+        <v>-0.02037596178979126</v>
+      </c>
+      <c r="H103">
+        <v>0.01658225483389369</v>
+      </c>
+      <c r="I103">
+        <v>0.001673832464166008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.07033685008879893</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.1858567231942951</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02792483421244929</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.4456195596539733</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.8549574189843462</v>
+      </c>
+      <c r="G104">
+        <v>-0.09359293681055703</v>
+      </c>
+      <c r="H104">
+        <v>0.02100433066909384</v>
+      </c>
+      <c r="I104">
+        <v>0.07449555216008272</v>
       </c>
     </row>
   </sheetData>
